--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>企业</t>
   </si>
@@ -73,11 +60,23 @@
   <si>
     <t>2024/4/12之前完成行测</t>
   </si>
+  <si>
+    <t>京东</t>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+  </si>
+  <si>
+    <t>美团</t>
+  </si>
+  <si>
+    <t>后端开发工程师（实习）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -106,6 +105,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -122,6 +149,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -163,21 +198,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -223,32 +243,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -259,13 +258,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,24 +324,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,18 +372,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,36 +384,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -391,24 +408,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,12 +427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +449,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,21 +496,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,148 +554,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -716,52 +715,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -958,7 +957,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -967,7 +966,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1241,12 +1240,12 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:R8"/>
+      <selection activeCell="M11" sqref="M11:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="43.125" customWidth="1"/>
+    <col min="9" max="9" width="43.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1454,19 +1453,27 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="3">
+        <v>45391</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1494,19 +1501,29 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="3">
+        <v>45391</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>

--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>企业</t>
   </si>
@@ -58,7 +58,7 @@
     <t>java开发工程师</t>
   </si>
   <si>
-    <t>2024/4/12之前完成行测</t>
+    <t>行测已完成</t>
   </si>
   <si>
     <t>京东</t>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:O12"/>
+      <selection activeCell="P13" sqref="P13:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1476,7 +1476,9 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>

--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>企业</t>
   </si>
@@ -58,7 +71,7 @@
     <t>java开发工程师</t>
   </si>
   <si>
-    <t>2024/4/12之前完成行测</t>
+    <t>行测已完成</t>
   </si>
   <si>
     <t>京东</t>
@@ -76,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -105,34 +118,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -149,6 +134,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -158,41 +182,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,11 +235,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -258,49 +271,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,121 +409,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,21 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,6 +494,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,148 +567,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -715,52 +728,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -957,7 +970,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -966,7 +979,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1240,12 +1253,12 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:O12"/>
+      <selection activeCell="P15" sqref="P15:R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="9" max="9" width="43.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="43.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1476,7 +1489,9 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>

--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="10968" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>企业</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>后端开发工程师（实习）</t>
+  </si>
+  <si>
+    <t>米哈游</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:R14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1553,19 +1556,29 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="3">
+        <v>45393</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>

--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10968" windowHeight="9275"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>企业</t>
   </si>
@@ -73,13 +86,31 @@
     <t>后端开发工程师（实习）</t>
   </si>
   <si>
+    <t>已参加笔试</t>
+  </si>
+  <si>
     <t>米哈游</t>
+  </si>
+  <si>
+    <t>服务端开发【2025届】</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>企业IT平台部_JAVA研发工程师(J71236)</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>通用软件开发</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -108,34 +139,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -149,14 +152,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,6 +191,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,7 +256,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,49 +292,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,121 +430,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,21 +483,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,6 +515,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,152 +588,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +741,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -718,52 +752,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -960,7 +994,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -969,7 +1003,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1240,15 +1274,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="9" max="9" width="43.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="43.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1319,7 +1353,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>45389</v>
       </c>
       <c r="K3" s="2"/>
@@ -1369,7 +1403,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>45389</v>
       </c>
       <c r="K5" s="2"/>
@@ -1419,7 +1453,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>45389</v>
       </c>
       <c r="K7" s="2"/>
@@ -1461,7 +1495,9 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
@@ -1469,7 +1505,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <v>45391</v>
       </c>
       <c r="K9" s="2"/>
@@ -1521,13 +1557,13 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>45391</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1557,7 +1593,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1571,7 +1607,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>45393</v>
       </c>
       <c r="K13" s="2"/>
@@ -1606,19 +1642,29 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="4">
+        <v>45393</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -1646,19 +1692,29 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="4">
+        <v>45394</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1686,19 +1742,29 @@
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="4">
+        <v>45394</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1726,44 +1792,44 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2"/>
@@ -1925,8 +1991,48 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="96">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
@@ -2017,6 +2123,12 @@
     <mergeCell ref="J29:L30"/>
     <mergeCell ref="M29:O30"/>
     <mergeCell ref="P29:R30"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="D31:F32"/>
+    <mergeCell ref="G31:I32"/>
+    <mergeCell ref="J31:L32"/>
+    <mergeCell ref="M31:O32"/>
+    <mergeCell ref="P31:R32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>企业</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>米哈游</t>
+  </si>
+  <si>
+    <t>简历挂</t>
   </si>
   <si>
     <t>服务端开发【2025届】</t>
@@ -1277,7 +1280,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:R12"/>
+      <selection activeCell="M23" sqref="M23:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1613,7 +1616,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1653,7 +1656,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1703,7 +1706,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1753,7 +1756,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>

--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -56,15 +56,18 @@
     <t>java开发工程师（广告）【2025届】</t>
   </si>
   <si>
+    <t>已参加笔试</t>
+  </si>
+  <si>
+    <t>日常</t>
+  </si>
+  <si>
+    <t>java开发实习生</t>
+  </si>
+  <si>
     <t>筛选中</t>
   </si>
   <si>
-    <t>日常</t>
-  </si>
-  <si>
-    <t>java开发实习生</t>
-  </si>
-  <si>
     <t>携程</t>
   </si>
   <si>
@@ -84,9 +87,6 @@
   </si>
   <si>
     <t>后端开发工程师（实习）</t>
-  </si>
-  <si>
-    <t>已参加笔试</t>
   </si>
   <si>
     <t>米哈游</t>
@@ -286,12 +286,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -612,7 +618,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,16 +642,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -654,89 +660,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,10 +752,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,7 +1295,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23:O24"/>
+      <selection activeCell="G23" sqref="G23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1356,7 +1371,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <v>45389</v>
       </c>
       <c r="K3" s="2"/>
@@ -1406,13 +1421,13 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>45389</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1442,7 +1457,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1452,11 +1467,11 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>45389</v>
       </c>
       <c r="K7" s="2"/>
@@ -1467,7 +1482,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1494,7 +1509,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1504,22 +1519,22 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <v>45391</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1546,7 +1561,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1556,17 +1571,17 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <v>45391</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1595,51 +1610,51 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="4">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7">
         <v>45393</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1660,13 +1675,13 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="4">
+      <c r="J15" s="6">
         <v>45393</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1710,13 +1725,13 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="4">
+      <c r="J17" s="6">
         <v>45394</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1760,13 +1775,13 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="4">
+      <c r="J19" s="6">
         <v>45394</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1795,44 +1810,44 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2"/>

--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>企业</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>通用软件开发</t>
+  </si>
+  <si>
+    <t>心理测评挂</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1298,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:I24"/>
+      <selection activeCell="P21" sqref="P21:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1710,101 +1713,101 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="6">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="7">
         <v>45394</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="6">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="7">
         <v>45394</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>

--- a/简历投递日志.xlsx
+++ b/简历投递日志.xlsx
@@ -4,30 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22368" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>企业</t>
   </si>
@@ -111,12 +98,18 @@
   </si>
   <si>
     <t>心理测评挂</t>
+  </si>
+  <si>
+    <t>大华股份</t>
+  </si>
+  <si>
+    <t>海康威视</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -145,6 +138,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -158,6 +179,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,21 +226,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,28 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,13 +297,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,24 +363,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,18 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,36 +423,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -436,24 +447,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,12 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +488,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,21 +535,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,152 +593,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,6 +754,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,57 +764,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1015,7 +1014,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1024,7 +1023,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1298,12 +1297,12 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:R22"/>
+      <selection activeCell="M23" sqref="M23:O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="43.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="43.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1374,7 +1373,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>45389</v>
       </c>
       <c r="K3" s="2"/>
@@ -1424,7 +1423,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>45389</v>
       </c>
       <c r="K5" s="2"/>
@@ -1474,7 +1473,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>45389</v>
       </c>
       <c r="K7" s="2"/>
@@ -1526,7 +1525,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>45391</v>
       </c>
       <c r="K9" s="2"/>
@@ -1578,7 +1577,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>45391</v>
       </c>
       <c r="K11" s="2"/>
@@ -1628,7 +1627,7 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>45393</v>
       </c>
       <c r="K13" s="3"/>
@@ -1678,7 +1677,7 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="6">
+      <c r="J15" s="7">
         <v>45393</v>
       </c>
       <c r="K15" s="2"/>
@@ -1728,7 +1727,7 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="7">
+      <c r="J17" s="8">
         <v>45394</v>
       </c>
       <c r="K17" s="3"/>
@@ -1778,7 +1777,7 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="7">
+      <c r="J19" s="8">
         <v>45394</v>
       </c>
       <c r="K19" s="3"/>
@@ -1813,58 +1812,70 @@
       <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="9">
+        <v>45433</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="J23" s="9">
+        <v>45433</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1882,9 +1893,9 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
